--- a/数据整理/stocks/A股/深证主板/002128-露天煤业.xlsx
+++ b/数据整理/stocks/A股/深证主板/002128-露天煤业.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>519162</t>
+          <t>515220</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>新华增怡债券A</t>
+          <t>国泰中证煤炭ETF</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>20.11</t>
+          <t>5.97</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.25</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>9</v>
+          <t>96.60</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2555</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>519163</t>
+          <t>161032</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>新华增怡债券C</t>
+          <t>富国中证煤炭指数</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>20.11</t>
+          <t>4.42</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.25</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>9</v>
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1790</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -548,25 +578,35 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>161032</t>
+          <t>168204</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>富国中证煤炭指数</t>
+          <t>中融中证煤炭指数</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>91.02</t>
+          <t>3.09</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4.05</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1270</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>6</v>
       </c>
     </row>
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>168204</t>
+          <t>400013</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>中融中证煤炭指数</t>
+          <t>东方成长收益灵活配置混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>92.72</t>
+          <t>5.51</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>4.11</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>6</v>
+          <t>24.37</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0876</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -604,26 +654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>512590</t>
+          <t>007687</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>浦银安盛中证高股息精选ETF</t>
+          <t>东方成长收益灵活配置混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>99.22</t>
+          <t>1.67</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2.01</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>7</v>
+          <t>24.37</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0266</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -632,26 +692,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>515220</t>
+          <t>512590</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>国泰中证煤炭ETF</t>
+          <t>浦银安盛中证高股息精选ETF</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>96.60</t>
+          <t>1.29</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>4.28</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>6</v>
+          <t>99.22</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0259</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -660,26 +730,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>007687</t>
+          <t>519162</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>东方成长收益灵活配置混合C</t>
+          <t>新华增怡债券A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>24.37</t>
+          <t>0.70</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1.59</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>8</v>
+          <t>20.11</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -688,26 +768,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>400013</t>
+          <t>519163</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>东方成长收益灵活配置混合A</t>
+          <t>新华增怡债券C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>24.37</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1.59</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>8</v>
+          <t>20.11</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -721,7 +811,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -742,15 +832,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -762,26 +862,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>004119</t>
+          <t>008704</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>广发创新驱动灵活配置混合</t>
+          <t>广发高股息优享混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>87.00</t>
+          <t>7.42</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>4.94</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>7</v>
+          <t>92.97</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3769</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -790,25 +900,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>007040</t>
+          <t>004119</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>新疆前海联合泳隆灵活配置混合C</t>
+          <t>广发创新驱动灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>87.00</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>4.94</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1408</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>7</v>
       </c>
     </row>
@@ -828,15 +948,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>96.99</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>3.85</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1220</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>7</v>
       </c>
     </row>
@@ -846,26 +976,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>519183</t>
+          <t>008705</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>万家双引擎灵活配置混合</t>
+          <t>广发高股息优享混合C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>93.82</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>4.02</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>3</v>
+          <t>92.97</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0991</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -884,15 +1024,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>92.70</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>3.67</t>
         </is>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0951</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>8</v>
       </c>
     </row>
@@ -912,15 +1062,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>94.47</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>3.64</t>
         </is>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0397</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>9</v>
       </c>
     </row>
@@ -930,26 +1090,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>008704</t>
+          <t>168204</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>广发高股息优享混合A</t>
+          <t>中融中证煤炭指数</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>92.97</t>
+          <t>1.03</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>5.08</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>9</v>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0377</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="9">
@@ -958,26 +1128,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>008705</t>
+          <t>519183</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>广发高股息优享混合C</t>
+          <t>万家双引擎灵活配置混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>92.97</t>
+          <t>0.23</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>5.08</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>9</v>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="10">
@@ -986,26 +1166,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>168204</t>
+          <t>008112</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>中融中证煤炭指数</t>
+          <t>中泰中证500指数增强A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>92.87</t>
+          <t>0.56</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>3.66</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>8</v>
+          <t>89.84</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -1014,25 +1204,35 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>008112</t>
+          <t>008524</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>中泰中证500指数增强A</t>
+          <t>华泰柏瑞锦瑞债券A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>89.84</t>
+          <t>0.46</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0.94</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
+          <t>20.09</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1052,15 +1252,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>89.84</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>0.94</t>
         </is>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1070,25 +1280,35 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>008524</t>
+          <t>008525</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>华泰柏瑞锦瑞债券A</t>
+          <t>华泰柏瑞锦瑞债券C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
           <t>20.09</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1.12</t>
         </is>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1098,26 +1318,30 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>008525</t>
+          <t>007040</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>华泰柏瑞锦瑞债券C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>20.09</t>
-        </is>
-      </c>
+          <t>新疆前海联合泳隆灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr">
         <is>
-          <t>1.12</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>9</v>
+          <t>87.00</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/002128-露天煤业.xlsx
+++ b/数据整理/stocks/A股/深证主板/002128-露天煤业.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1326,7 +1327,6 @@
           <t>新疆前海联合泳隆灵活配置混合C</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr">
         <is>
           <t>87.00</t>
@@ -1342,6 +1342,214 @@
       </c>
       <c r="H14" t="n">
         <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>008704</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发高股息优享混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>7.86</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>76.68</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4174</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>004119</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发创新驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>67.11</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2090</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008705</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发高股息优享混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>76.68</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1551</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>512590</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>浦银安盛中证高股息精选ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>98.81</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0209</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/002128-露天煤业.xlsx
+++ b/数据整理/stocks/A股/深证主板/002128-露天煤业.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1555,4 +1556,668 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>012719</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏新兴经济一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>22.58</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>61.82</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7406</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008704</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发高股息优享混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3361</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008705</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发高股息优享混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1323</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002434</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中银宏利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.60</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>27.25</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0507</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002261</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中银宝利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8.52</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>27.20</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0503</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>003966</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中银润利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>8.20</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>25.47</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0484</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002614</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中银颐利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.43</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>27.46</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0438</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012720</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华夏新兴经济一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>61.82</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0387</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002615</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中银颐利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>27.46</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0339</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>003967</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中银润利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>25.47</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0310</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>512590</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>浦银安盛中证高股息精选ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>97.86</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0308</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005561</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>创金合信中证红利低波动指数A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0277</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>512890</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证红利低波动ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>98.53</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0263</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>002435</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中银宏利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>27.25</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0228</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>002262</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中银宝利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>27.20</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0193</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005562</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>创金合信中证红利低波动指数C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002128-露天煤业.xlsx
+++ b/数据整理/stocks/A股/深证主板/002128-露天煤业.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2220,4 +2221,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>16</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.64</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>13</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>8</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002128-露天煤业.xlsx
+++ b/数据整理/stocks/A股/深证主板/002128-露天煤业.xlsx
@@ -2245,12 +2245,12 @@
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>持有市值(亿元)</t>
         </is>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002128-露天煤业.xlsx
+++ b/数据整理/stocks/A股/深证主板/002128-露天煤业.xlsx
@@ -6,11 +6,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,357 +454,97 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>515220</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>国泰中证煤炭ETF</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>5.97</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>96.60</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.28</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.2555</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>6</v>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>16</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.64</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>161032</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>富国中证煤炭指数</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>4.42</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>91.02</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.05</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1790</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>6</v>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.8</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>168204</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>中融中证煤炭指数</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>3.09</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>92.72</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.11</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.1270</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>6</v>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>13</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.9399999999999999</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="A5" s="2" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>400013</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>东方成长收益灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>5.51</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>24.37</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1.59</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0876</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
         <v>8</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>007687</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>东方成长收益灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>1.67</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>24.37</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>1.59</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0266</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>512590</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>浦银安盛中证高股息精选ETF</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>1.29</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>99.22</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2.01</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0259</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>519162</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>新华增怡债券A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.70</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>20.11</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0.25</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0018</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>519163</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>新华增怡债券C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.11</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>20.11</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>0.25</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0003</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>9</v>
+      <c r="D5" t="n">
+        <v>0.7</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -814,7 +554,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -865,36 +605,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>008704</t>
+          <t>012719</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>广发高股息优享混合A</t>
+          <t>华夏新兴经济一年持有期混合型证券投资基金A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>7.42</t>
+          <t>22.58</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.97</t>
+          <t>61.82</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.08</t>
+          <t>3.28</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.3769</t>
+          <t>0.7406</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -903,32 +643,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>004119</t>
+          <t>008704</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>广发创新驱动灵活配置混合</t>
+          <t>广发高股息优享混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.85</t>
+          <t>6.63</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>87.00</t>
+          <t>93.48</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.94</t>
+          <t>5.07</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1408</t>
+          <t>0.3361</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -941,32 +681,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>515220</t>
+          <t>008705</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>国泰中证煤炭ETF</t>
+          <t>广发高股息优享混合C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3.17</t>
+          <t>2.61</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>96.99</t>
+          <t>93.48</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.85</t>
+          <t>5.07</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1220</t>
+          <t>0.1323</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -979,36 +719,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>008705</t>
+          <t>002434</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>广发高股息优享混合C</t>
+          <t>中银宏利灵活配置混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>8.60</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>92.97</t>
+          <t>27.25</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.08</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0991</t>
+          <t>0.0507</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -1017,32 +757,32 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>161032</t>
+          <t>002261</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>富国中证煤炭指数</t>
+          <t>中银宝利灵活配置混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2.59</t>
+          <t>8.52</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>92.70</t>
+          <t>27.20</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.67</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0951</t>
+          <t>0.0503</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -1055,36 +795,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>161224</t>
+          <t>003966</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>国投瑞银新丝路灵活配置混合(LOF)</t>
+          <t>中银润利灵活配置混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.09</t>
+          <t>8.20</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>94.47</t>
+          <t>25.47</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.64</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0397</t>
+          <t>0.0484</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -1093,32 +833,32 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>168204</t>
+          <t>002614</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>中融中证煤炭指数</t>
+          <t>中银颐利灵活配置混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1.03</t>
+          <t>7.43</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>92.87</t>
+          <t>27.46</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>3.66</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0377</t>
+          <t>0.0438</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -1131,36 +871,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>519183</t>
+          <t>012720</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>万家双引擎灵活配置混合</t>
+          <t>华夏新兴经济一年持有期混合型证券投资基金C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.23</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>93.82</t>
+          <t>61.82</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>4.02</t>
+          <t>3.28</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0092</t>
+          <t>0.0387</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
@@ -1169,36 +909,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>008112</t>
+          <t>002615</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>中泰中证500指数增强A</t>
+          <t>中银颐利灵活配置混合C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.56</t>
+          <t>5.74</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>89.84</t>
+          <t>27.46</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0.94</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0053</t>
+          <t>0.0339</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11">
@@ -1207,36 +947,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>008524</t>
+          <t>003967</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>华泰柏瑞锦瑞债券A</t>
+          <t>中银润利灵活配置混合C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.46</t>
+          <t>5.25</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>20.09</t>
+          <t>25.47</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>1.12</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0052</t>
+          <t>0.0310</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12">
@@ -1245,36 +985,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>008113</t>
+          <t>512590</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>中泰中证500指数增强C</t>
+          <t>浦银安盛中证高股息精选ETF</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.43</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>89.84</t>
+          <t>97.86</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0.94</t>
+          <t>2.73</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0040</t>
+          <t>0.0308</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13">
@@ -1283,36 +1023,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>008525</t>
+          <t>005561</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>华泰柏瑞锦瑞债券C</t>
+          <t>创金合信中证红利低波动指数A</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>1.26</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>20.09</t>
+          <t>93.35</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>1.12</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0010</t>
+          <t>0.0277</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14">
@@ -1321,29 +1061,150 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>007040</t>
+          <t>512890</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>新疆前海联合泳隆灵活配置混合C</t>
+          <t>华泰柏瑞中证红利低波动ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.14</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>87.00</t>
+          <t>98.53</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>4.94</t>
-        </is>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0263</t>
+        </is>
       </c>
       <c r="H14" t="n">
-        <v>7</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>002435</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中银宏利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>27.25</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0228</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>002262</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中银宝利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>27.20</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0193</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005562</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>创金合信中证红利低波动指数C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1565,7 +1426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1616,36 +1477,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>012719</t>
+          <t>008704</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华夏新兴经济一年持有期混合型证券投资基金A</t>
+          <t>广发高股息优享混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>22.58</t>
+          <t>7.42</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>61.82</t>
+          <t>92.97</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.28</t>
+          <t>5.08</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.7406</t>
+          <t>0.3769</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1654,32 +1515,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>008704</t>
+          <t>004119</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>广发高股息优享混合A</t>
+          <t>广发创新驱动灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>6.63</t>
+          <t>2.85</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.48</t>
+          <t>87.00</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.07</t>
+          <t>4.94</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.3361</t>
+          <t>0.1408</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1692,32 +1553,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>008705</t>
+          <t>515220</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>广发高股息优享混合C</t>
+          <t>国泰中证煤炭ETF</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2.61</t>
+          <t>3.17</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.48</t>
+          <t>96.99</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.07</t>
+          <t>3.85</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1323</t>
+          <t>0.1220</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -1730,36 +1591,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>002434</t>
+          <t>008705</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>中银宏利灵活配置混合A</t>
+          <t>广发高股息优享混合C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>8.60</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>27.25</t>
+          <t>92.97</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.59</t>
+          <t>5.08</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0507</t>
+          <t>0.0991</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -1768,32 +1629,32 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>002261</t>
+          <t>161032</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>中银宝利灵活配置混合A</t>
+          <t>富国中证煤炭指数</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>8.52</t>
+          <t>2.59</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>27.20</t>
+          <t>92.70</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0.59</t>
+          <t>3.67</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0503</t>
+          <t>0.0951</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -1806,36 +1667,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>003966</t>
+          <t>161224</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>中银润利灵活配置混合A</t>
+          <t>国投瑞银新丝路灵活配置混合(LOF)</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>8.20</t>
+          <t>1.09</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>25.47</t>
+          <t>94.47</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0.59</t>
+          <t>3.64</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0484</t>
+          <t>0.0397</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -1844,32 +1705,32 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>002614</t>
+          <t>168204</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>中银颐利灵活配置混合A</t>
+          <t>中融中证煤炭指数</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>7.43</t>
+          <t>1.03</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>27.46</t>
+          <t>92.87</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0.59</t>
+          <t>3.66</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0438</t>
+          <t>0.0377</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -1882,36 +1743,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>012720</t>
+          <t>519183</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>华夏新兴经济一年持有期混合型证券投资基金C</t>
+          <t>万家双引擎灵活配置混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>0.23</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>61.82</t>
+          <t>93.82</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>3.28</t>
+          <t>4.02</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0387</t>
+          <t>0.0092</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10">
@@ -1920,36 +1781,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>002615</t>
+          <t>008112</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>中银颐利灵活配置混合C</t>
+          <t>中泰中证500指数增强A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>5.74</t>
+          <t>0.56</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>27.46</t>
+          <t>89.84</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0.59</t>
+          <t>0.94</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0339</t>
+          <t>0.0053</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -1958,36 +1819,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>003967</t>
+          <t>008524</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>中银润利灵活配置混合C</t>
+          <t>华泰柏瑞锦瑞债券A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>5.25</t>
+          <t>0.46</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>25.47</t>
+          <t>20.09</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0.59</t>
+          <t>1.12</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0310</t>
+          <t>0.0052</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12">
@@ -1996,36 +1857,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>512590</t>
+          <t>008113</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>浦银安盛中证高股息精选ETF</t>
+          <t>中泰中证500指数增强C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1.13</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>97.86</t>
+          <t>89.84</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2.73</t>
+          <t>0.94</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0308</t>
+          <t>0.0040</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13">
@@ -2034,36 +1895,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>005561</t>
+          <t>008525</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>创金合信中证红利低波动指数A</t>
+          <t>华泰柏瑞锦瑞债券C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>1.26</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>93.35</t>
+          <t>20.09</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>1.12</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0277</t>
+          <t>0.0010</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14">
@@ -2072,150 +1933,29 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>512890</t>
+          <t>007040</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>华泰柏瑞中证红利低波动ETF</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>1.14</t>
+          <t>新疆前海联合泳隆灵活配置混合C</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>98.53</t>
+          <t>87.00</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2.31</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0263</t>
-        </is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>002435</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>中银宏利灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>3.86</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>27.25</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>0.59</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0228</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>002262</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>中银宝利灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>3.27</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>27.20</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>0.59</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0193</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>005562</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>创金合信中证红利低波动指数C</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0.47</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>93.35</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>2.20</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0103</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -2229,96 +1969,356 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>16</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.64</v>
+          <t>515220</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰中证煤炭ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>96.60</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2555</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+          <t>161032</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国中证煤炭指数</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1790</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>168204</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中融中证煤炭指数</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1270</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>400013</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>东方成长收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>24.37</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0876</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="D3" t="n">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>13</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007687</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>东方成长收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>24.37</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0266</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>8</v>
       </c>
-      <c r="D5" t="n">
-        <v>0.7</v>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>512590</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>浦银安盛中证高股息精选ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>99.22</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0259</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>519162</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>新华增怡债券A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>20.11</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>519163</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>新华增怡债券C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>20.11</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>